--- a/backend/src/resources/bowlpool.xlsx
+++ b/backend/src/resources/bowlpool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanKennedy/Code/GitHub/bowlpoolReact/backend/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FFADAF-516C-8348-9028-6876ACB9A99B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D22868-C9B8-A746-949B-0107AB6824F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="16660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +565,30 @@
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -998,7 +1022,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
@@ -1189,24 +1213,6 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1226,6 +1232,122 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1622,13 +1744,13 @@
   </sheetPr>
   <dimension ref="A1:AA80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:S80"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="82"/>
+    <col min="1" max="1" width="14.6640625" style="76"/>
     <col min="2" max="2" width="14.6640625"/>
     <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="59" customWidth="1"/>
@@ -1639,14 +1761,14 @@
     <col min="11" max="14" width="4.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="4.6640625" style="68" customWidth="1"/>
     <col min="16" max="17" width="4.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="80" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" style="74" customWidth="1"/>
     <col min="19" max="19" width="4.6640625" style="68" customWidth="1"/>
     <col min="20" max="25" width="4.6640625" style="1" customWidth="1"/>
     <col min="26" max="27" width="5.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="76" t="s">
         <v>129</v>
       </c>
       <c r="B1" t="s">
@@ -1688,19 +1810,19 @@
       <c r="N1" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="O1" s="110" t="s">
         <v>125</v>
       </c>
       <c r="P1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="117" t="s">
         <v>134</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="S1" s="110" t="s">
         <v>128</v>
       </c>
       <c r="T1" s="23"/>
@@ -1711,10 +1833,10 @@
       <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A2" s="83">
+      <c r="A2" s="77">
         <v>401135260</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="75" t="s">
         <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1725,29 +1847,29 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="62"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="81"/>
+      <c r="K2" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
       <c r="N2" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
+      <c r="Q2" s="78"/>
       <c r="R2" s="28"/>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T2" s="28"/>
@@ -1758,10 +1880,10 @@
       <c r="Y2" s="29"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A3" s="83">
+      <c r="A3" s="77">
         <v>401135260</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="75" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1776,33 +1898,33 @@
       <c r="F3" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="M3" s="31" t="s">
+      <c r="G3" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="83"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" s="82" t="s">
         <v>116</v>
       </c>
       <c r="N3" s="31"/>
-      <c r="O3" s="66"/>
+      <c r="O3" s="112"/>
       <c r="P3" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="82" t="s">
         <v>116</v>
       </c>
       <c r="R3" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="S3" s="66"/>
+      <c r="S3" s="112"/>
       <c r="T3" s="31"/>
       <c r="U3" s="32"/>
       <c r="V3" s="33"/>
@@ -1811,7 +1933,7 @@
       <c r="Y3" s="32"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A4" s="83">
+      <c r="A4" s="77">
         <v>401135261</v>
       </c>
       <c r="B4" t="s">
@@ -1825,27 +1947,27 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="64"/>
-      <c r="G4" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="G4" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="87"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
       <c r="N4" s="34"/>
-      <c r="O4" s="64"/>
+      <c r="O4" s="113"/>
       <c r="P4" s="34"/>
-      <c r="Q4" s="34" t="s">
+      <c r="Q4" s="86" t="s">
         <v>116</v>
       </c>
       <c r="R4" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S4" s="64"/>
+      <c r="S4" s="113"/>
       <c r="T4" s="34"/>
       <c r="U4" s="35"/>
       <c r="V4" s="36"/>
@@ -1856,7 +1978,7 @@
       <c r="AA4"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="83">
+      <c r="A5" s="77">
         <v>401135261</v>
       </c>
       <c r="B5" t="s">
@@ -1874,35 +1996,35 @@
       <c r="F5" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="M5" s="37" t="s">
+      <c r="G5" s="90"/>
+      <c r="H5" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="90" t="s">
         <v>116</v>
       </c>
       <c r="N5" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P5" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="37"/>
+      <c r="Q5" s="90"/>
       <c r="R5" s="37"/>
-      <c r="S5" s="63" t="s">
+      <c r="S5" s="114" t="s">
         <v>116</v>
       </c>
       <c r="T5" s="37"/>
@@ -1915,7 +2037,7 @@
       <c r="AA5"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A6" s="83">
+      <c r="A6" s="77">
         <v>401135263</v>
       </c>
       <c r="B6" t="s">
@@ -1931,25 +2053,25 @@
       <c r="F6" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="O6" s="64"/>
+      <c r="O6" s="113"/>
       <c r="P6" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="Q6" s="40"/>
+      <c r="Q6" s="93"/>
       <c r="R6" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="S6" s="64"/>
+      <c r="S6" s="113"/>
       <c r="T6" s="40"/>
       <c r="U6" s="41"/>
       <c r="V6" s="42"/>
@@ -1960,7 +2082,7 @@
       <c r="AA6"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A7" s="83">
+      <c r="A7" s="77">
         <v>401135263</v>
       </c>
       <c r="B7" t="s">
@@ -1976,37 +2098,37 @@
         <v>91</v>
       </c>
       <c r="F7" s="66"/>
-      <c r="G7" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" s="31" t="s">
+      <c r="G7" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="82" t="s">
         <v>116</v>
       </c>
       <c r="N7" s="31"/>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P7" s="31"/>
-      <c r="Q7" s="31" t="s">
+      <c r="Q7" s="82" t="s">
         <v>116</v>
       </c>
       <c r="R7" s="31"/>
-      <c r="S7" s="63" t="s">
+      <c r="S7" s="114" t="s">
         <v>116</v>
       </c>
       <c r="T7" s="31"/>
@@ -2019,7 +2141,7 @@
       <c r="AA7"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A8" s="83">
+      <c r="A8" s="77">
         <v>401147693</v>
       </c>
       <c r="B8" t="s">
@@ -2035,27 +2157,27 @@
       <c r="F8" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="M8" s="40"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="89"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" s="93"/>
       <c r="N8" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="O8" s="65" t="s">
+      <c r="O8" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
+      <c r="Q8" s="93"/>
       <c r="R8" s="40"/>
-      <c r="S8" s="64"/>
+      <c r="S8" s="113"/>
       <c r="T8" s="40"/>
       <c r="U8" s="41"/>
       <c r="V8" s="42"/>
@@ -2066,7 +2188,7 @@
       <c r="AA8"/>
     </row>
     <row r="9" spans="1:27" ht="16" customHeight="1" thickBot="1">
-      <c r="A9" s="83">
+      <c r="A9" s="77">
         <v>401147693</v>
       </c>
       <c r="B9" t="s">
@@ -2082,35 +2204,35 @@
         <v>92</v>
       </c>
       <c r="F9" s="66"/>
-      <c r="G9" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="66"/>
-      <c r="J9" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31" t="s">
+      <c r="G9" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="84"/>
+      <c r="J9" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82" t="s">
         <v>116</v>
       </c>
       <c r="N9" s="31"/>
-      <c r="O9" s="66"/>
+      <c r="O9" s="112"/>
       <c r="P9" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="Q9" s="31" t="s">
+      <c r="Q9" s="82" t="s">
         <v>116</v>
       </c>
       <c r="R9" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="S9" s="63" t="s">
+      <c r="S9" s="114" t="s">
         <v>116</v>
       </c>
       <c r="T9" s="31"/>
@@ -2123,7 +2245,7 @@
       <c r="AA9"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A10" s="83">
+      <c r="A10" s="77">
         <v>401135264</v>
       </c>
       <c r="B10" t="s">
@@ -2141,23 +2263,23 @@
       <c r="F10" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
       <c r="N10" s="34"/>
-      <c r="O10" s="64"/>
+      <c r="O10" s="113"/>
       <c r="P10" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="Q10" s="34"/>
+      <c r="Q10" s="86"/>
       <c r="R10" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S10" s="64"/>
+      <c r="S10" s="113"/>
       <c r="T10" s="34"/>
       <c r="U10" s="35"/>
       <c r="V10" s="36"/>
@@ -2168,7 +2290,7 @@
       <c r="AA10"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A11" s="83">
+      <c r="A11" s="77">
         <v>401135264</v>
       </c>
       <c r="B11" t="s">
@@ -2182,39 +2304,39 @@
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="66"/>
-      <c r="G11" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="M11" s="37" t="s">
+      <c r="G11" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="90" t="s">
         <v>116</v>
       </c>
       <c r="N11" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="O11" s="63" t="s">
+      <c r="O11" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P11" s="37"/>
-      <c r="Q11" s="37" t="s">
+      <c r="Q11" s="90" t="s">
         <v>116</v>
       </c>
       <c r="R11" s="37"/>
-      <c r="S11" s="63" t="s">
+      <c r="S11" s="114" t="s">
         <v>116</v>
       </c>
       <c r="T11" s="37"/>
@@ -2227,7 +2349,7 @@
       <c r="AA11"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A12" s="83">
+      <c r="A12" s="77">
         <v>401135265</v>
       </c>
       <c r="B12" t="s">
@@ -2245,33 +2367,33 @@
       <c r="F12" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" s="34"/>
+      <c r="G12" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="87"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="86"/>
       <c r="N12" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P12" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="Q12" s="86" t="s">
         <v>116</v>
       </c>
       <c r="R12" s="34"/>
-      <c r="S12" s="65" t="s">
+      <c r="S12" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T12" s="34"/>
@@ -2284,7 +2406,7 @@
       <c r="AA12"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="83">
+      <c r="A13" s="77">
         <v>401135265</v>
       </c>
       <c r="B13" t="s">
@@ -2298,29 +2420,29 @@
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="66"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="74"/>
-      <c r="K13" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37" t="s">
+      <c r="G13" s="90"/>
+      <c r="H13" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="97"/>
+      <c r="K13" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90" t="s">
         <v>116</v>
       </c>
       <c r="N13" s="37"/>
-      <c r="O13" s="66"/>
+      <c r="O13" s="112"/>
       <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
+      <c r="Q13" s="90"/>
       <c r="R13" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="S13" s="66"/>
+      <c r="S13" s="112"/>
       <c r="T13" s="37"/>
       <c r="U13" s="38"/>
       <c r="V13" s="39"/>
@@ -2331,7 +2453,7 @@
       <c r="AA13"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A14" s="83">
+      <c r="A14" s="77">
         <v>401135266</v>
       </c>
       <c r="B14" t="s">
@@ -2347,35 +2469,35 @@
       <c r="F14" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="34" t="s">
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="89"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="86" t="s">
         <v>116</v>
       </c>
       <c r="N14" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O14" s="65" t="s">
+      <c r="O14" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P14" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="Q14" s="34" t="s">
+      <c r="Q14" s="86" t="s">
         <v>116</v>
       </c>
       <c r="R14" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S14" s="64"/>
+      <c r="S14" s="113"/>
       <c r="T14" s="34"/>
       <c r="U14" s="35"/>
       <c r="V14" s="36"/>
@@ -2386,7 +2508,7 @@
       <c r="AA14"/>
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A15" s="83">
+      <c r="A15" s="77">
         <v>401135266</v>
       </c>
       <c r="B15" t="s">
@@ -2402,27 +2524,27 @@
         <v>95</v>
       </c>
       <c r="F15" s="66"/>
-      <c r="G15" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
+      <c r="G15" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="37"/>
-      <c r="O15" s="66"/>
+      <c r="O15" s="112"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
+      <c r="Q15" s="90"/>
       <c r="R15" s="37"/>
-      <c r="S15" s="63" t="s">
+      <c r="S15" s="114" t="s">
         <v>116</v>
       </c>
       <c r="T15" s="37"/>
@@ -2435,7 +2557,7 @@
       <c r="AA15"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A16" s="83">
+      <c r="A16" s="77">
         <v>401135267</v>
       </c>
       <c r="B16" t="s">
@@ -2449,29 +2571,29 @@
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="64"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
       <c r="N16" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="65" t="s">
+      <c r="O16" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
+      <c r="Q16" s="86"/>
       <c r="R16" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S16" s="65" t="s">
+      <c r="S16" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T16" s="34"/>
@@ -2484,7 +2606,7 @@
       <c r="AA16"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A17" s="83">
+      <c r="A17" s="77">
         <v>401135267</v>
       </c>
       <c r="B17" t="s">
@@ -2502,33 +2624,33 @@
       <c r="F17" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="37" t="s">
+      <c r="G17" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="91"/>
+      <c r="I17" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="90" t="s">
         <v>116</v>
       </c>
       <c r="N17" s="37"/>
-      <c r="O17" s="66"/>
+      <c r="O17" s="112"/>
       <c r="P17" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="90" t="s">
         <v>116</v>
       </c>
       <c r="R17" s="37"/>
-      <c r="S17" s="66"/>
+      <c r="S17" s="112"/>
       <c r="T17" s="37"/>
       <c r="U17" s="38"/>
       <c r="V17" s="39"/>
@@ -2539,7 +2661,7 @@
       <c r="AA17"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A18" s="83">
+      <c r="A18" s="77">
         <v>401135268</v>
       </c>
       <c r="B18" t="s">
@@ -2557,31 +2679,31 @@
       <c r="F18" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="88"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
       <c r="N18" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="O18" s="64"/>
+      <c r="O18" s="113"/>
       <c r="P18" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="Q18" s="40" t="s">
+      <c r="Q18" s="93" t="s">
         <v>116</v>
       </c>
       <c r="R18" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="S18" s="65" t="s">
+      <c r="S18" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T18" s="40"/>
@@ -2594,7 +2716,7 @@
       <c r="AA18"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A19" s="83">
+      <c r="A19" s="77">
         <v>401135268</v>
       </c>
       <c r="B19" t="s">
@@ -2608,31 +2730,31 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="66"/>
-      <c r="G19" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J19" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="M19" s="31" t="s">
+      <c r="G19" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="83"/>
+      <c r="I19" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="M19" s="82" t="s">
         <v>116</v>
       </c>
       <c r="N19" s="31"/>
-      <c r="O19" s="63" t="s">
+      <c r="O19" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
+      <c r="Q19" s="82"/>
       <c r="R19" s="31"/>
-      <c r="S19" s="66"/>
+      <c r="S19" s="112"/>
       <c r="T19" s="31"/>
       <c r="U19" s="32"/>
       <c r="V19" s="33"/>
@@ -2643,7 +2765,7 @@
       <c r="AA19"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A20" s="83">
+      <c r="A20" s="77">
         <v>401135269</v>
       </c>
       <c r="B20" t="s">
@@ -2657,23 +2779,23 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="64"/>
-      <c r="G20" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
+      <c r="G20" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="94"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="93"/>
+      <c r="M20" s="93"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="64"/>
+      <c r="O20" s="113"/>
       <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
+      <c r="Q20" s="93"/>
       <c r="R20" s="40"/>
-      <c r="S20" s="65" t="s">
+      <c r="S20" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T20" s="40"/>
@@ -2686,7 +2808,7 @@
       <c r="AA20"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A21" s="83">
+      <c r="A21" s="77">
         <v>401135269</v>
       </c>
       <c r="B21" t="s">
@@ -2704,39 +2826,39 @@
       <c r="F21" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="31" t="s">
+      <c r="G21" s="82"/>
+      <c r="H21" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="82" t="s">
         <v>116</v>
       </c>
       <c r="N21" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="O21" s="67" t="s">
+      <c r="O21" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="Q21" s="31" t="s">
+      <c r="Q21" s="82" t="s">
         <v>116</v>
       </c>
       <c r="R21" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="S21" s="62"/>
+      <c r="S21" s="116"/>
       <c r="T21" s="31"/>
       <c r="U21" s="32"/>
       <c r="V21" s="33"/>
@@ -2747,7 +2869,7 @@
       <c r="AA21"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A22" s="83">
+      <c r="A22" s="77">
         <v>401135270</v>
       </c>
       <c r="B22" t="s">
@@ -2761,27 +2883,27 @@
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="62"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="M22" s="28"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="78" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="78"/>
       <c r="N22" s="28"/>
-      <c r="O22" s="62"/>
+      <c r="O22" s="116"/>
       <c r="P22" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="Q22" s="28" t="s">
+      <c r="Q22" s="78" t="s">
         <v>116</v>
       </c>
       <c r="R22" s="28"/>
-      <c r="S22" s="67" t="s">
+      <c r="S22" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T22" s="28"/>
@@ -2792,7 +2914,7 @@
       <c r="Y22" s="29"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="83">
+      <c r="A23" s="77">
         <v>401135270</v>
       </c>
       <c r="B23" t="s">
@@ -2810,35 +2932,35 @@
       <c r="F23" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G23" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31" t="s">
+      <c r="G23" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82" t="s">
         <v>116</v>
       </c>
       <c r="N23" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="O23" s="63" t="s">
+      <c r="O23" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="Q23" s="82"/>
       <c r="R23" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="S23" s="66"/>
+      <c r="S23" s="112"/>
       <c r="T23" s="31"/>
       <c r="U23" s="32"/>
       <c r="V23" s="33"/>
@@ -2847,7 +2969,7 @@
       <c r="Y23" s="32"/>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A24" s="83">
+      <c r="A24" s="77">
         <v>401135271</v>
       </c>
       <c r="B24" t="s">
@@ -2861,29 +2983,29 @@
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="64"/>
-      <c r="G24" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34" t="s">
+      <c r="G24" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86" t="s">
         <v>116</v>
       </c>
       <c r="N24" s="34"/>
-      <c r="O24" s="65" t="s">
+      <c r="O24" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
+      <c r="Q24" s="86"/>
       <c r="R24" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="S24" s="64"/>
+      <c r="S24" s="113"/>
       <c r="T24" s="34"/>
       <c r="U24" s="35"/>
       <c r="V24" s="36"/>
@@ -2892,7 +3014,7 @@
       <c r="Y24" s="35"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="83">
+      <c r="A25" s="77">
         <v>401135271</v>
       </c>
       <c r="B25" t="s">
@@ -2910,33 +3032,33 @@
       <c r="F25" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="M25" s="37"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="M25" s="90"/>
       <c r="N25" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="62"/>
+      <c r="O25" s="116"/>
       <c r="P25" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="Q25" s="37" t="s">
+      <c r="Q25" s="90" t="s">
         <v>116</v>
       </c>
       <c r="R25" s="37"/>
-      <c r="S25" s="67" t="s">
+      <c r="S25" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T25" s="37"/>
@@ -2947,7 +3069,7 @@
       <c r="Y25" s="38"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A26" s="83">
+      <c r="A26" s="77">
         <v>401135272</v>
       </c>
       <c r="B26" t="s">
@@ -2963,27 +3085,27 @@
       <c r="F26" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G26" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="72"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="G26" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="99"/>
+      <c r="I26" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" s="89"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="98"/>
       <c r="N26" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="O26" s="62"/>
+      <c r="O26" s="116"/>
       <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="S26" s="62"/>
+      <c r="Q26" s="98"/>
+      <c r="R26" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="S26" s="116"/>
       <c r="T26" s="43"/>
       <c r="U26" s="44"/>
       <c r="V26" s="44"/>
@@ -2992,7 +3114,7 @@
       <c r="Y26" s="44"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="83">
+      <c r="A27" s="77">
         <v>401135272</v>
       </c>
       <c r="B27" t="s">
@@ -3008,35 +3130,35 @@
         <v>89</v>
       </c>
       <c r="F27" s="66"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="L27" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="M27" s="45" t="s">
+      <c r="G27" s="100"/>
+      <c r="H27" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K27" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="L27" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N27" s="45"/>
-      <c r="O27" s="63" t="s">
+      <c r="O27" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P27" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Q27" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="R27" s="77"/>
-      <c r="S27" s="63" t="s">
+      <c r="Q27" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="R27" s="71"/>
+      <c r="S27" s="114" t="s">
         <v>116</v>
       </c>
       <c r="T27" s="45"/>
@@ -3047,7 +3169,7 @@
       <c r="Y27" s="46"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A28" s="83">
+      <c r="A28" s="77">
         <v>401135273</v>
       </c>
       <c r="B28" t="s">
@@ -3063,29 +3185,29 @@
       <c r="F28" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="48"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
+      <c r="G28" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="103"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
       <c r="N28" s="47"/>
-      <c r="O28" s="65" t="s">
+      <c r="O28" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="S28" s="65" t="s">
+      <c r="Q28" s="102"/>
+      <c r="R28" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T28" s="47"/>
@@ -3096,7 +3218,7 @@
       <c r="Y28" s="48"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A29" s="83">
+      <c r="A29" s="77">
         <v>401135273</v>
       </c>
       <c r="B29" t="s">
@@ -3112,33 +3234,33 @@
         <v>93</v>
       </c>
       <c r="F29" s="62"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" s="70"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="M29" s="49" t="s">
+      <c r="G29" s="104"/>
+      <c r="H29" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" s="81"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="104" t="s">
         <v>116</v>
       </c>
       <c r="N29" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="O29" s="62"/>
+      <c r="O29" s="116"/>
       <c r="P29" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="Q29" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="R29" s="79"/>
-      <c r="S29" s="62"/>
+      <c r="Q29" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="R29" s="73"/>
+      <c r="S29" s="116"/>
       <c r="T29" s="49"/>
       <c r="U29" s="50"/>
       <c r="V29" s="50"/>
@@ -3147,7 +3269,7 @@
       <c r="Y29" s="50"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A30" s="83">
+      <c r="A30" s="77">
         <v>401135274</v>
       </c>
       <c r="B30" t="s">
@@ -3163,25 +3285,25 @@
       <c r="F30" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="88"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
       <c r="N30" s="43"/>
-      <c r="O30" s="62"/>
+      <c r="O30" s="116"/>
       <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="S30" s="62"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="S30" s="116"/>
       <c r="T30" s="43"/>
       <c r="U30" s="44"/>
       <c r="V30" s="44"/>
@@ -3190,7 +3312,7 @@
       <c r="Y30" s="44"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="83">
+      <c r="A31" s="77">
         <v>401135274</v>
       </c>
       <c r="B31" t="s">
@@ -3206,37 +3328,37 @@
         <v>101</v>
       </c>
       <c r="F31" s="62"/>
-      <c r="G31" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="46"/>
-      <c r="I31" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="M31" s="45" t="s">
+      <c r="G31" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="101"/>
+      <c r="I31" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N31" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="O31" s="67" t="s">
+      <c r="O31" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P31" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Q31" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="R31" s="77"/>
-      <c r="S31" s="67" t="s">
+      <c r="Q31" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="R31" s="71"/>
+      <c r="S31" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T31" s="45"/>
@@ -3247,7 +3369,7 @@
       <c r="Y31" s="46"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A32" s="83">
+      <c r="A32" s="77">
         <v>401136253</v>
       </c>
       <c r="B32" t="s">
@@ -3265,27 +3387,27 @@
       <c r="F32" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M32" s="43"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M32" s="98"/>
       <c r="N32" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="O32" s="67" t="s">
+      <c r="O32" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="67" t="s">
+      <c r="Q32" s="98"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T32" s="43"/>
@@ -3296,7 +3418,7 @@
       <c r="Y32" s="44"/>
     </row>
     <row r="33" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A33" s="83">
+      <c r="A33" s="77">
         <v>401136253</v>
       </c>
       <c r="B33" t="s">
@@ -3310,35 +3432,35 @@
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="66"/>
-      <c r="G33" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J33" s="74"/>
-      <c r="K33" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="L33" s="45"/>
-      <c r="M33" s="45" t="s">
+      <c r="G33" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" s="97"/>
+      <c r="K33" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N33" s="45"/>
-      <c r="O33" s="66"/>
+      <c r="O33" s="112"/>
       <c r="P33" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Q33" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="R33" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="S33" s="66"/>
+      <c r="Q33" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="R33" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="S33" s="112"/>
       <c r="T33" s="45"/>
       <c r="U33" s="46"/>
       <c r="V33" s="46"/>
@@ -3347,7 +3469,7 @@
       <c r="Y33" s="46"/>
     </row>
     <row r="34" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A34" s="83">
+      <c r="A34" s="77">
         <v>401135275</v>
       </c>
       <c r="B34" t="s">
@@ -3363,33 +3485,33 @@
       <c r="F34" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G34" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="64"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M34" s="47"/>
+      <c r="G34" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="88"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="M34" s="102"/>
       <c r="N34" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="O34" s="64"/>
+      <c r="O34" s="113"/>
       <c r="P34" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="Q34" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="R34" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="S34" s="65" t="s">
+      <c r="Q34" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="R34" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="S34" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T34" s="47"/>
@@ -3400,7 +3522,7 @@
       <c r="Y34" s="48"/>
     </row>
     <row r="35" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A35" s="83">
+      <c r="A35" s="77">
         <v>401135275</v>
       </c>
       <c r="B35" t="s">
@@ -3416,29 +3538,29 @@
         <v>103</v>
       </c>
       <c r="F35" s="62"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49" t="s">
+      <c r="G35" s="104"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104" t="s">
         <v>116</v>
       </c>
       <c r="N35" s="49"/>
-      <c r="O35" s="67" t="s">
+      <c r="O35" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="62"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="116"/>
       <c r="T35" s="49"/>
       <c r="U35" s="50"/>
       <c r="V35" s="50"/>
@@ -3447,7 +3569,7 @@
       <c r="Y35" s="50"/>
     </row>
     <row r="36" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A36" s="83">
+      <c r="A36" s="77">
         <v>401135276</v>
       </c>
       <c r="B36" t="s">
@@ -3463,37 +3585,37 @@
       <c r="F36" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G36" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J36" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K36" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L36" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M36" s="43"/>
+      <c r="G36" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K36" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="98"/>
       <c r="N36" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="O36" s="62"/>
+      <c r="O36" s="116"/>
       <c r="P36" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="Q36" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R36" s="76"/>
-      <c r="S36" s="67" t="s">
+      <c r="Q36" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="R36" s="70"/>
+      <c r="S36" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T36" s="43"/>
@@ -3504,7 +3626,7 @@
       <c r="Y36" s="44"/>
     </row>
     <row r="37" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="83">
+      <c r="A37" s="77">
         <v>401135276</v>
       </c>
       <c r="B37" t="s">
@@ -3520,25 +3642,25 @@
         <v>93</v>
       </c>
       <c r="F37" s="66"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="46"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="45"/>
-      <c r="M37" s="45" t="s">
+      <c r="G37" s="100"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N37" s="45"/>
-      <c r="O37" s="63" t="s">
+      <c r="O37" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P37" s="45"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="S37" s="66"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="S37" s="112"/>
       <c r="T37" s="45"/>
       <c r="U37" s="46"/>
       <c r="V37" s="46"/>
@@ -3547,7 +3669,7 @@
       <c r="Y37" s="46"/>
     </row>
     <row r="38" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A38" s="83">
+      <c r="A38" s="77">
         <v>401135277</v>
       </c>
       <c r="B38" t="s">
@@ -3565,29 +3687,29 @@
       <c r="F38" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M38" s="47" t="s">
+      <c r="G38" s="102"/>
+      <c r="H38" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="88"/>
+      <c r="J38" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="M38" s="102" t="s">
         <v>116</v>
       </c>
       <c r="N38" s="47"/>
-      <c r="O38" s="65" t="s">
+      <c r="O38" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="65" t="s">
+      <c r="Q38" s="102"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T38" s="47"/>
@@ -3598,7 +3720,7 @@
       <c r="Y38" s="48"/>
     </row>
     <row r="39" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="83">
+      <c r="A39" s="77">
         <v>401135277</v>
       </c>
       <c r="B39" t="s">
@@ -3612,33 +3734,33 @@
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="66"/>
-      <c r="G39" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H39" s="50"/>
-      <c r="I39" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="74"/>
-      <c r="K39" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
+      <c r="G39" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="105"/>
+      <c r="I39" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" s="97"/>
+      <c r="K39" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
       <c r="N39" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="O39" s="66"/>
+      <c r="O39" s="112"/>
       <c r="P39" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="Q39" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="R39" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="S39" s="66"/>
+      <c r="Q39" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="R39" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="S39" s="112"/>
       <c r="T39" s="49"/>
       <c r="U39" s="50"/>
       <c r="V39" s="50"/>
@@ -3647,41 +3769,55 @@
       <c r="Y39" s="50"/>
     </row>
     <row r="40" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A40" s="83">
-        <v>401135279</v>
+      <c r="A40" s="77">
+        <v>401135278</v>
       </c>
       <c r="B40" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="58" t="s">
+      <c r="C40" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="E40" s="60" t="s">
+        <v>105</v>
+      </c>
       <c r="F40" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J40" s="72"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="N40" s="47"/>
-      <c r="O40" s="65" t="s">
+      <c r="G40" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="J40" s="89"/>
+      <c r="K40" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="L40" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="M40" s="102"/>
+      <c r="N40" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="O40" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="64"/>
+      <c r="Q40" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="R40" s="72"/>
+      <c r="S40" s="115" t="s">
+        <v>116</v>
+      </c>
       <c r="T40" s="47"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
@@ -3690,55 +3826,41 @@
       <c r="Y40" s="48"/>
     </row>
     <row r="41" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A41" s="83">
-        <v>401135279</v>
+      <c r="A41" s="77">
+        <v>401135278</v>
       </c>
       <c r="B41" t="s">
         <v>130</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F41" s="66"/>
-      <c r="G41" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H41" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L41" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="O41" s="66"/>
+        <v>76</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="N41" s="49"/>
+      <c r="O41" s="116"/>
       <c r="P41" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="Q41" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="R41" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="S41" s="63" t="s">
-        <v>116</v>
-      </c>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="S41" s="116"/>
       <c r="T41" s="49"/>
       <c r="U41" s="50"/>
       <c r="V41" s="50"/>
@@ -3747,55 +3869,41 @@
       <c r="Y41" s="50"/>
     </row>
     <row r="42" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A42" s="83">
-        <v>401135278</v>
+      <c r="A42" s="77">
+        <v>401135279</v>
       </c>
       <c r="B42" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="60" t="s">
+      <c r="C42" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="60" t="s">
-        <v>105</v>
-      </c>
+      <c r="E42" s="17"/>
       <c r="F42" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J42" s="72"/>
-      <c r="K42" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="L42" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="O42" s="65" t="s">
+      <c r="G42" s="102"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" s="89"/>
+      <c r="K42" s="102"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="N42" s="47"/>
+      <c r="O42" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P42" s="47"/>
-      <c r="Q42" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="R42" s="78"/>
-      <c r="S42" s="65" t="s">
-        <v>116</v>
-      </c>
+      <c r="Q42" s="102"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="113"/>
       <c r="T42" s="47"/>
       <c r="U42" s="48"/>
       <c r="V42" s="48"/>
@@ -3804,41 +3912,55 @@
       <c r="Y42" s="48"/>
     </row>
     <row r="43" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="83">
-        <v>401135278</v>
+      <c r="A43" s="77">
+        <v>401135279</v>
       </c>
       <c r="B43" t="s">
         <v>130</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="N43" s="49"/>
-      <c r="O43" s="62"/>
+        <v>75</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="66"/>
+      <c r="G43" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="84"/>
+      <c r="J43" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K43" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="M43" s="104"/>
+      <c r="N43" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="O43" s="112"/>
       <c r="P43" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="Q43" s="49"/>
-      <c r="R43" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="S43" s="62"/>
+      <c r="Q43" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="R43" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="S43" s="114" t="s">
+        <v>116</v>
+      </c>
       <c r="T43" s="49"/>
       <c r="U43" s="50"/>
       <c r="V43" s="50"/>
@@ -3847,7 +3969,7 @@
       <c r="Y43" s="50"/>
     </row>
     <row r="44" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A44" s="83">
+      <c r="A44" s="77">
         <v>401135280</v>
       </c>
       <c r="B44" t="s">
@@ -3861,31 +3983,31 @@
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="62"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M44" s="43"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M44" s="98"/>
       <c r="N44" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="O44" s="67" t="s">
+      <c r="O44" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P44" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="Q44" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R44" s="76"/>
-      <c r="S44" s="62"/>
+      <c r="Q44" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="R44" s="70"/>
+      <c r="S44" s="116"/>
       <c r="T44" s="43"/>
       <c r="U44" s="44"/>
       <c r="V44" s="44"/>
@@ -3894,7 +4016,7 @@
       <c r="Y44" s="44"/>
     </row>
     <row r="45" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A45" s="83">
+      <c r="A45" s="77">
         <v>401135280</v>
       </c>
       <c r="B45" t="s">
@@ -3912,31 +4034,31 @@
       <c r="F45" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="74"/>
-      <c r="K45" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45" t="s">
+      <c r="G45" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" s="97"/>
+      <c r="K45" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N45" s="45"/>
-      <c r="O45" s="66"/>
+      <c r="O45" s="112"/>
       <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
-      <c r="R45" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="S45" s="63" t="s">
+      <c r="Q45" s="100"/>
+      <c r="R45" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="S45" s="114" t="s">
         <v>116</v>
       </c>
       <c r="T45" s="45"/>
@@ -3947,207 +4069,207 @@
       <c r="Y45" s="46"/>
     </row>
     <row r="46" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A46" s="83">
-        <v>401135281</v>
+      <c r="A46" s="77">
+        <v>401136254</v>
       </c>
       <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H46" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J46" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K46" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="L46" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M46" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="N46" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="O46" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q46" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="R46" s="70"/>
+      <c r="S46" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="T46" s="43"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+    </row>
+    <row r="47" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A47" s="77">
+        <v>401136254</v>
+      </c>
+      <c r="B47" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E46" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H46" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" s="64"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M46" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="N46" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="O46" s="64"/>
-      <c r="P46" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q46" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="R46" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="S46" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="T46" s="47"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="48"/>
-      <c r="X46" s="48"/>
-      <c r="Y46" s="48"/>
-    </row>
-    <row r="47" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A47" s="83">
-        <v>401135281</v>
-      </c>
-      <c r="B47" t="s">
-        <v>130</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K47" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="79"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="49"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
-      <c r="W47" s="50"/>
-      <c r="X47" s="50"/>
-      <c r="Y47" s="50"/>
+      <c r="E47" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="100"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="100"/>
+      <c r="R47" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="S47" s="112"/>
+      <c r="T47" s="45"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
     </row>
     <row r="48" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A48" s="83">
-        <v>401136254</v>
+      <c r="A48" s="77">
+        <v>401135281</v>
       </c>
       <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F48" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G48" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="88"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="M48" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="N48" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="O48" s="113"/>
+      <c r="P48" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q48" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="R48" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="S48" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="T48" s="47"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="48"/>
+    </row>
+    <row r="49" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="A49" s="77">
+        <v>401135281</v>
+      </c>
+      <c r="B49" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J48" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K48" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L48" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M48" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="N48" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="O48" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="P48" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q48" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R48" s="76"/>
-      <c r="S48" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="T48" s="43"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-    </row>
-    <row r="49" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A49" s="83">
-        <v>401136254</v>
-      </c>
-      <c r="B49" t="s">
-        <v>131</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="S49" s="66"/>
-      <c r="T49" s="45"/>
-      <c r="U49" s="46"/>
-      <c r="V49" s="46"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="111" t="s">
+        <v>116</v>
+      </c>
+      <c r="P49" s="49"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="116"/>
+      <c r="T49" s="49"/>
+      <c r="U49" s="50"/>
+      <c r="V49" s="50"/>
+      <c r="W49" s="50"/>
+      <c r="X49" s="50"/>
+      <c r="Y49" s="50"/>
     </row>
     <row r="50" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A50" s="83">
+      <c r="A50" s="77">
         <v>401135282</v>
       </c>
       <c r="B50" t="s">
@@ -4163,35 +4285,35 @@
       <c r="F50" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G50" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J50" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M50" s="47" t="s">
+      <c r="G50" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="K50" s="102"/>
+      <c r="L50" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="M50" s="102" t="s">
         <v>123</v>
       </c>
       <c r="N50" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="O50" s="64"/>
+      <c r="O50" s="113"/>
       <c r="P50" s="47"/>
-      <c r="Q50" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="R50" s="78"/>
-      <c r="S50" s="65" t="s">
+      <c r="Q50" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="R50" s="72"/>
+      <c r="S50" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T50" s="47"/>
@@ -4202,7 +4324,7 @@
       <c r="Y50" s="48"/>
     </row>
     <row r="51" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A51" s="83">
+      <c r="A51" s="77">
         <v>401135282</v>
       </c>
       <c r="B51" t="s">
@@ -4218,29 +4340,29 @@
         <v>108</v>
       </c>
       <c r="F51" s="62"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49" t="s">
+      <c r="G51" s="104"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="107"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" s="104"/>
+      <c r="M51" s="104" t="s">
         <v>116</v>
       </c>
       <c r="N51" s="49"/>
-      <c r="O51" s="67" t="s">
+      <c r="O51" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P51" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="Q51" s="49"/>
-      <c r="R51" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="S51" s="62"/>
+      <c r="Q51" s="104"/>
+      <c r="R51" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="S51" s="116"/>
       <c r="T51" s="49"/>
       <c r="U51" s="50"/>
       <c r="V51" s="50"/>
@@ -4249,7 +4371,7 @@
       <c r="Y51" s="50"/>
     </row>
     <row r="52" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A52" s="83">
+      <c r="A52" s="77">
         <v>401135283</v>
       </c>
       <c r="B52" t="s">
@@ -4265,25 +4387,25 @@
       <c r="F52" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G52" s="43"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L52" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M52" s="43"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="L52" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M52" s="98"/>
       <c r="N52" s="43"/>
-      <c r="O52" s="62"/>
+      <c r="O52" s="116"/>
       <c r="P52" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="62"/>
+      <c r="Q52" s="98"/>
+      <c r="R52" s="70"/>
+      <c r="S52" s="116"/>
       <c r="T52" s="43"/>
       <c r="U52" s="44"/>
       <c r="V52" s="44"/>
@@ -4292,7 +4414,7 @@
       <c r="Y52" s="44"/>
     </row>
     <row r="53" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A53" s="83">
+      <c r="A53" s="77">
         <v>401135283</v>
       </c>
       <c r="B53" t="s">
@@ -4308,37 +4430,37 @@
         <v>94</v>
       </c>
       <c r="F53" s="66"/>
-      <c r="G53" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H53" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I53" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J53" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K53" s="45"/>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45" t="s">
+      <c r="G53" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J53" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" s="100"/>
+      <c r="L53" s="100"/>
+      <c r="M53" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N53" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="O53" s="63" t="s">
+      <c r="O53" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P53" s="45"/>
-      <c r="Q53" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="R53" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="S53" s="63" t="s">
+      <c r="Q53" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="R53" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="S53" s="114" t="s">
         <v>116</v>
       </c>
       <c r="T53" s="45"/>
@@ -4349,7 +4471,7 @@
       <c r="Y53" s="46"/>
     </row>
     <row r="54" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A54" s="83">
+      <c r="A54" s="77">
         <v>401136255</v>
       </c>
       <c r="B54" t="s">
@@ -4367,37 +4489,37 @@
       <c r="F54" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G54" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H54" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" s="64"/>
-      <c r="J54" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="K54" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="L54" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M54" s="47" t="s">
+      <c r="G54" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H54" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="88"/>
+      <c r="J54" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="K54" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="L54" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="M54" s="102" t="s">
         <v>116</v>
       </c>
       <c r="N54" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="O54" s="64"/>
+      <c r="O54" s="113"/>
       <c r="P54" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="Q54" s="47"/>
-      <c r="R54" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="S54" s="65" t="s">
+      <c r="Q54" s="102"/>
+      <c r="R54" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="S54" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T54" s="47"/>
@@ -4408,7 +4530,7 @@
       <c r="Y54" s="48"/>
     </row>
     <row r="55" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A55" s="83">
+      <c r="A55" s="77">
         <v>401136255</v>
       </c>
       <c r="B55" t="s">
@@ -4422,25 +4544,25 @@
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="62"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J55" s="70"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" s="81"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="104"/>
       <c r="N55" s="49"/>
-      <c r="O55" s="67" t="s">
+      <c r="O55" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P55" s="49"/>
-      <c r="Q55" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="R55" s="79"/>
-      <c r="S55" s="62"/>
+      <c r="Q55" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="R55" s="73"/>
+      <c r="S55" s="116"/>
       <c r="T55" s="49"/>
       <c r="U55" s="50"/>
       <c r="V55" s="50"/>
@@ -4449,7 +4571,7 @@
       <c r="Y55" s="50"/>
     </row>
     <row r="56" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A56" s="83">
+      <c r="A56" s="77">
         <v>401135284</v>
       </c>
       <c r="B56" t="s">
@@ -4465,23 +4587,23 @@
         <v>109</v>
       </c>
       <c r="F56" s="62"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="44"/>
-      <c r="I56" s="64"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M56" s="43"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M56" s="98"/>
       <c r="N56" s="43"/>
-      <c r="O56" s="62"/>
+      <c r="O56" s="116"/>
       <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="S56" s="62"/>
+      <c r="Q56" s="98"/>
+      <c r="R56" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="S56" s="116"/>
       <c r="T56" s="43"/>
       <c r="U56" s="44"/>
       <c r="V56" s="44"/>
@@ -4490,7 +4612,7 @@
       <c r="Y56" s="44"/>
     </row>
     <row r="57" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A57" s="83">
+      <c r="A57" s="77">
         <v>401135284</v>
       </c>
       <c r="B57" t="s">
@@ -4506,39 +4628,39 @@
       <c r="F57" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G57" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J57" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K57" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="L57" s="45"/>
-      <c r="M57" s="45" t="s">
+      <c r="G57" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H57" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J57" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K57" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N57" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="O57" s="67" t="s">
+      <c r="O57" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P57" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Q57" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="R57" s="77"/>
-      <c r="S57" s="67" t="s">
+      <c r="Q57" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="R57" s="71"/>
+      <c r="S57" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T57" s="45"/>
@@ -4549,7 +4671,7 @@
       <c r="Y57" s="46"/>
     </row>
     <row r="58" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A58" s="83">
+      <c r="A58" s="77">
         <v>401147695</v>
       </c>
       <c r="B58" t="s">
@@ -4565,31 +4687,31 @@
         <v>110</v>
       </c>
       <c r="F58" s="62"/>
-      <c r="G58" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H58" s="44"/>
-      <c r="I58" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J58" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M58" s="43"/>
+      <c r="G58" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H58" s="99"/>
+      <c r="I58" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J58" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K58" s="98"/>
+      <c r="L58" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M58" s="98"/>
       <c r="N58" s="43"/>
-      <c r="O58" s="67" t="s">
+      <c r="O58" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P58" s="43"/>
-      <c r="Q58" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R58" s="76"/>
-      <c r="S58" s="67" t="s">
+      <c r="Q58" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="R58" s="70"/>
+      <c r="S58" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T58" s="43"/>
@@ -4600,7 +4722,7 @@
       <c r="Y58" s="44"/>
     </row>
     <row r="59" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A59" s="83">
+      <c r="A59" s="77">
         <v>401147695</v>
       </c>
       <c r="B59" t="s">
@@ -4616,31 +4738,31 @@
       <c r="F59" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G59" s="45"/>
-      <c r="H59" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="I59" s="62"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="L59" s="45"/>
-      <c r="M59" s="45" t="s">
+      <c r="G59" s="100"/>
+      <c r="H59" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" s="107"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N59" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="O59" s="62"/>
+      <c r="O59" s="116"/>
       <c r="P59" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="S59" s="62"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="S59" s="116"/>
       <c r="T59" s="45"/>
       <c r="U59" s="46"/>
       <c r="V59" s="46"/>
@@ -4649,7 +4771,7 @@
       <c r="Y59" s="46"/>
     </row>
     <row r="60" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A60" s="83">
+      <c r="A60" s="77">
         <v>401135285</v>
       </c>
       <c r="B60" t="s">
@@ -4665,35 +4787,35 @@
       <c r="F60" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G60" s="43"/>
-      <c r="H60" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I60" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J60" s="70"/>
-      <c r="K60" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L60" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M60" s="43" t="s">
+      <c r="G60" s="98"/>
+      <c r="H60" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J60" s="81"/>
+      <c r="K60" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="L60" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M60" s="98" t="s">
         <v>116</v>
       </c>
       <c r="N60" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="O60" s="67" t="s">
+      <c r="O60" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="S60" s="67" t="s">
+      <c r="Q60" s="98"/>
+      <c r="R60" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="S60" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T60" s="43"/>
@@ -4704,7 +4826,7 @@
       <c r="Y60" s="44"/>
     </row>
     <row r="61" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A61" s="83">
+      <c r="A61" s="77">
         <v>401135285</v>
       </c>
       <c r="B61" t="s">
@@ -4720,27 +4842,27 @@
         <v>107</v>
       </c>
       <c r="F61" s="62"/>
-      <c r="G61" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
+      <c r="G61" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H61" s="101"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61" s="100"/>
+      <c r="L61" s="100"/>
+      <c r="M61" s="100"/>
       <c r="N61" s="45"/>
-      <c r="O61" s="62"/>
+      <c r="O61" s="116"/>
       <c r="P61" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Q61" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="R61" s="77"/>
-      <c r="S61" s="62"/>
+      <c r="Q61" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="R61" s="71"/>
+      <c r="S61" s="116"/>
       <c r="T61" s="45"/>
       <c r="U61" s="46"/>
       <c r="V61" s="46"/>
@@ -4749,7 +4871,7 @@
       <c r="Y61" s="46"/>
     </row>
     <row r="62" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A62" s="83">
+      <c r="A62" s="77">
         <v>401135286</v>
       </c>
       <c r="B62" t="s">
@@ -4765,29 +4887,29 @@
       <c r="F62" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G62" s="43"/>
-      <c r="H62" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="62"/>
-      <c r="J62" s="72"/>
-      <c r="K62" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" s="107"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="L62" s="98"/>
+      <c r="M62" s="98"/>
       <c r="N62" s="43"/>
-      <c r="O62" s="62"/>
+      <c r="O62" s="116"/>
       <c r="P62" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="Q62" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R62" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="S62" s="67" t="s">
+      <c r="Q62" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="R62" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="S62" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T62" s="43"/>
@@ -4798,7 +4920,7 @@
       <c r="Y62" s="44"/>
     </row>
     <row r="63" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A63" s="83">
+      <c r="A63" s="77">
         <v>401135286</v>
       </c>
       <c r="B63" t="s">
@@ -4814,33 +4936,33 @@
         <v>110</v>
       </c>
       <c r="F63" s="66"/>
-      <c r="G63" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H63" s="46"/>
-      <c r="I63" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J63" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="M63" s="45" t="s">
+      <c r="G63" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H63" s="101"/>
+      <c r="I63" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J63" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K63" s="100"/>
+      <c r="L63" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="M63" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N63" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="O63" s="63" t="s">
+      <c r="O63" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P63" s="45"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="77"/>
-      <c r="S63" s="66"/>
+      <c r="Q63" s="100"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="112"/>
       <c r="T63" s="45"/>
       <c r="U63" s="46"/>
       <c r="V63" s="46"/>
@@ -4849,7 +4971,7 @@
       <c r="Y63" s="46"/>
     </row>
     <row r="64" spans="1:25" ht="15" customHeight="1" thickTop="1">
-      <c r="A64" s="83">
+      <c r="A64" s="77">
         <v>401135287</v>
       </c>
       <c r="B64" t="s">
@@ -4867,33 +4989,33 @@
       <c r="F64" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G64" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="48"/>
-      <c r="I64" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J64" s="72"/>
-      <c r="K64" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="L64" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M64" s="47"/>
+      <c r="G64" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" s="103"/>
+      <c r="I64" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="J64" s="89"/>
+      <c r="K64" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="L64" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="M64" s="102"/>
       <c r="N64" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="O64" s="64"/>
+      <c r="O64" s="113"/>
       <c r="P64" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="Q64" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="R64" s="78"/>
-      <c r="S64" s="65" t="s">
+      <c r="Q64" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="R64" s="72"/>
+      <c r="S64" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T64" s="47"/>
@@ -4904,7 +5026,7 @@
       <c r="Y64" s="48"/>
     </row>
     <row r="65" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A65" s="83">
+      <c r="A65" s="77">
         <v>401135287</v>
       </c>
       <c r="B65" t="s">
@@ -4918,29 +5040,29 @@
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="62"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="I65" s="62"/>
-      <c r="J65" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49" t="s">
+      <c r="G65" s="104"/>
+      <c r="H65" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="I65" s="107"/>
+      <c r="J65" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K65" s="104"/>
+      <c r="L65" s="104"/>
+      <c r="M65" s="104" t="s">
         <v>116</v>
       </c>
       <c r="N65" s="49"/>
-      <c r="O65" s="67" t="s">
+      <c r="O65" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P65" s="49"/>
-      <c r="Q65" s="49"/>
-      <c r="R65" s="79" t="s">
-        <v>116</v>
-      </c>
-      <c r="S65" s="62"/>
+      <c r="Q65" s="104"/>
+      <c r="R65" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="S65" s="116"/>
       <c r="T65" s="49"/>
       <c r="U65" s="50"/>
       <c r="V65" s="50"/>
@@ -4949,7 +5071,7 @@
       <c r="Y65" s="50"/>
     </row>
     <row r="66" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A66" s="83">
+      <c r="A66" s="77">
         <v>401135288</v>
       </c>
       <c r="B66" t="s">
@@ -4963,41 +5085,41 @@
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="62"/>
-      <c r="G66" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I66" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="J66" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="K66" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L66" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M66" s="43" t="s">
+      <c r="G66" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="I66" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J66" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="K66" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="L66" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M66" s="98" t="s">
         <v>116</v>
       </c>
       <c r="N66" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="O66" s="67" t="s">
+      <c r="O66" s="111" t="s">
         <v>116</v>
       </c>
       <c r="P66" s="43"/>
-      <c r="Q66" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R66" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="S66" s="62"/>
+      <c r="Q66" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="R66" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="S66" s="116"/>
       <c r="T66" s="43"/>
       <c r="U66" s="44"/>
       <c r="V66" s="44"/>
@@ -5006,7 +5128,7 @@
       <c r="Y66" s="44"/>
     </row>
     <row r="67" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A67" s="83">
+      <c r="A67" s="77">
         <v>401135288</v>
       </c>
       <c r="B67" t="s">
@@ -5024,21 +5146,21 @@
       <c r="F67" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G67" s="45"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="45"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="84"/>
+      <c r="J67" s="97"/>
+      <c r="K67" s="100"/>
+      <c r="L67" s="100"/>
+      <c r="M67" s="100"/>
       <c r="N67" s="45"/>
-      <c r="O67" s="66"/>
+      <c r="O67" s="112"/>
       <c r="P67" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Q67" s="45"/>
-      <c r="R67" s="77"/>
-      <c r="S67" s="63" t="s">
+      <c r="Q67" s="100"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="114" t="s">
         <v>116</v>
       </c>
       <c r="T67" s="45"/>
@@ -5049,7 +5171,7 @@
       <c r="Y67" s="46"/>
     </row>
     <row r="68" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A68" s="83">
+      <c r="A68" s="77">
         <v>401135289</v>
       </c>
       <c r="B68" t="s">
@@ -5065,29 +5187,29 @@
       <c r="F68" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G68" s="47"/>
-      <c r="H68" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="I68" s="64"/>
-      <c r="J68" s="72"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47" t="s">
+      <c r="G68" s="102"/>
+      <c r="H68" s="103" t="s">
+        <v>116</v>
+      </c>
+      <c r="I68" s="88"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="102"/>
+      <c r="L68" s="102"/>
+      <c r="M68" s="102" t="s">
         <v>116</v>
       </c>
       <c r="N68" s="47"/>
-      <c r="O68" s="65" t="s">
+      <c r="O68" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P68" s="47"/>
-      <c r="Q68" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="R68" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="S68" s="64"/>
+      <c r="Q68" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="R68" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="S68" s="113"/>
       <c r="T68" s="47"/>
       <c r="U68" s="48"/>
       <c r="V68" s="48"/>
@@ -5096,7 +5218,7 @@
       <c r="Y68" s="48"/>
     </row>
     <row r="69" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A69" s="83">
+      <c r="A69" s="77">
         <v>401135289</v>
       </c>
       <c r="B69" t="s">
@@ -5112,33 +5234,33 @@
         <v>113</v>
       </c>
       <c r="F69" s="62"/>
-      <c r="G69" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H69" s="50"/>
-      <c r="I69" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J69" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K69" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L69" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="M69" s="49"/>
+      <c r="G69" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" s="105"/>
+      <c r="I69" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J69" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K69" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="L69" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="M69" s="104"/>
       <c r="N69" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="O69" s="62"/>
+      <c r="O69" s="116"/>
       <c r="P69" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="79"/>
-      <c r="S69" s="67" t="s">
+      <c r="Q69" s="104"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T69" s="49"/>
@@ -5149,7 +5271,7 @@
       <c r="Y69" s="50"/>
     </row>
     <row r="70" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A70" s="83">
+      <c r="A70" s="77">
         <v>401135290</v>
       </c>
       <c r="B70" t="s">
@@ -5165,29 +5287,29 @@
       <c r="F70" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="G70" s="43"/>
-      <c r="H70" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="I70" s="64"/>
-      <c r="J70" s="72"/>
-      <c r="K70" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="L70" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="M70" s="43"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="I70" s="88"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="L70" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="M70" s="98"/>
       <c r="N70" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="O70" s="62"/>
+      <c r="O70" s="116"/>
       <c r="P70" s="43"/>
-      <c r="Q70" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R70" s="76"/>
-      <c r="S70" s="67" t="s">
+      <c r="Q70" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="R70" s="70"/>
+      <c r="S70" s="111" t="s">
         <v>116</v>
       </c>
       <c r="T70" s="43"/>
@@ -5198,7 +5320,7 @@
       <c r="Y70" s="44"/>
     </row>
     <row r="71" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A71" s="83">
+      <c r="A71" s="77">
         <v>401135290</v>
       </c>
       <c r="B71" t="s">
@@ -5214,33 +5336,33 @@
         <v>110</v>
       </c>
       <c r="F71" s="66"/>
-      <c r="G71" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H71" s="46"/>
-      <c r="I71" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J71" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="45" t="s">
+      <c r="G71" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="101"/>
+      <c r="I71" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J71" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+      <c r="M71" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N71" s="45"/>
-      <c r="O71" s="63" t="s">
+      <c r="O71" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P71" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Q71" s="45"/>
-      <c r="R71" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="S71" s="66"/>
+      <c r="Q71" s="100"/>
+      <c r="R71" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="S71" s="112"/>
       <c r="T71" s="45"/>
       <c r="U71" s="46"/>
       <c r="V71" s="46"/>
@@ -5249,7 +5371,7 @@
       <c r="Y71" s="46"/>
     </row>
     <row r="72" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A72" s="83">
+      <c r="A72" s="77">
         <v>401135291</v>
       </c>
       <c r="B72" t="s">
@@ -5263,29 +5385,29 @@
       </c>
       <c r="E72" s="17"/>
       <c r="F72" s="64"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="72"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M72" s="47" t="s">
+      <c r="G72" s="102"/>
+      <c r="H72" s="103"/>
+      <c r="I72" s="88"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="102"/>
+      <c r="L72" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="M72" s="102" t="s">
         <v>116</v>
       </c>
       <c r="N72" s="47"/>
-      <c r="O72" s="65" t="s">
+      <c r="O72" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P72" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="78" t="s">
-        <v>116</v>
-      </c>
-      <c r="S72" s="65" t="s">
+      <c r="Q72" s="102"/>
+      <c r="R72" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="S72" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T72" s="47"/>
@@ -5296,7 +5418,7 @@
       <c r="Y72" s="48"/>
     </row>
     <row r="73" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A73" s="83">
+      <c r="A73" s="77">
         <v>401135291</v>
       </c>
       <c r="B73" t="s">
@@ -5312,33 +5434,33 @@
       <c r="F73" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G73" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="H73" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="I73" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J73" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K73" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
+      <c r="G73" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H73" s="105" t="s">
+        <v>116</v>
+      </c>
+      <c r="I73" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J73" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K73" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="L73" s="104"/>
+      <c r="M73" s="104"/>
       <c r="N73" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="O73" s="66"/>
+      <c r="O73" s="112"/>
       <c r="P73" s="49"/>
-      <c r="Q73" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="R73" s="79"/>
-      <c r="S73" s="66"/>
+      <c r="Q73" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="R73" s="73"/>
+      <c r="S73" s="112"/>
       <c r="T73" s="49"/>
       <c r="U73" s="50"/>
       <c r="V73" s="50"/>
@@ -5347,7 +5469,7 @@
       <c r="Y73" s="50"/>
     </row>
     <row r="74" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A74" s="83">
+      <c r="A74" s="77">
         <v>401135292</v>
       </c>
       <c r="B74" t="s">
@@ -5365,35 +5487,35 @@
       <c r="F74" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G74" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="H74" s="42"/>
-      <c r="I74" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J74" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="K74" s="40"/>
-      <c r="L74" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="M74" s="40" t="s">
+      <c r="G74" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" s="94"/>
+      <c r="I74" s="95" t="s">
+        <v>116</v>
+      </c>
+      <c r="J74" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="K74" s="93"/>
+      <c r="L74" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="M74" s="93" t="s">
         <v>116</v>
       </c>
       <c r="N74" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="O74" s="64"/>
+      <c r="O74" s="113"/>
       <c r="P74" s="40"/>
-      <c r="Q74" s="40" t="s">
+      <c r="Q74" s="93" t="s">
         <v>116</v>
       </c>
       <c r="R74" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="S74" s="65" t="s">
+      <c r="S74" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T74" s="40"/>
@@ -5406,7 +5528,7 @@
       <c r="AA74"/>
     </row>
     <row r="75" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="83">
+      <c r="A75" s="77">
         <v>401135292</v>
       </c>
       <c r="B75" t="s">
@@ -5420,27 +5542,27 @@
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="66"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I75" s="66"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
+      <c r="G75" s="82"/>
+      <c r="H75" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I75" s="84"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="L75" s="82"/>
+      <c r="M75" s="82"/>
       <c r="N75" s="31"/>
-      <c r="O75" s="63" t="s">
+      <c r="O75" s="114" t="s">
         <v>116</v>
       </c>
       <c r="P75" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="Q75" s="31"/>
+      <c r="Q75" s="82"/>
       <c r="R75" s="31"/>
-      <c r="S75" s="66"/>
+      <c r="S75" s="112"/>
       <c r="T75" s="31"/>
       <c r="U75" s="32"/>
       <c r="V75" s="33"/>
@@ -5451,7 +5573,7 @@
       <c r="AA75"/>
     </row>
     <row r="76" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A76" s="83">
+      <c r="A76" s="77">
         <v>401135293</v>
       </c>
       <c r="B76" t="s">
@@ -5467,29 +5589,29 @@
       <c r="F76" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="G76" s="40"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
+      <c r="G76" s="93"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="96" t="s">
+        <v>116</v>
+      </c>
+      <c r="K76" s="93"/>
+      <c r="L76" s="93"/>
+      <c r="M76" s="93"/>
       <c r="N76" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="O76" s="65" t="s">
+      <c r="O76" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P76" s="40"/>
-      <c r="Q76" s="40" t="s">
+      <c r="Q76" s="93" t="s">
         <v>116</v>
       </c>
       <c r="R76" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="S76" s="65" t="s">
+      <c r="S76" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T76" s="40"/>
@@ -5502,7 +5624,7 @@
       <c r="AA76"/>
     </row>
     <row r="77" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A77" s="83">
+      <c r="A77" s="77">
         <v>401135293</v>
       </c>
       <c r="B77" t="s">
@@ -5518,33 +5640,33 @@
         <v>104</v>
       </c>
       <c r="F77" s="66"/>
-      <c r="G77" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="H77" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="I77" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J77" s="74"/>
-      <c r="K77" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="L77" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="M77" s="31" t="s">
+      <c r="G77" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>116</v>
+      </c>
+      <c r="I77" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J77" s="97"/>
+      <c r="K77" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="L77" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="M77" s="82" t="s">
         <v>116</v>
       </c>
       <c r="N77" s="31"/>
-      <c r="O77" s="66"/>
+      <c r="O77" s="112"/>
       <c r="P77" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="Q77" s="31"/>
+      <c r="Q77" s="82"/>
       <c r="R77" s="31"/>
-      <c r="S77" s="66"/>
+      <c r="S77" s="112"/>
       <c r="T77" s="31"/>
       <c r="U77" s="32"/>
       <c r="V77" s="33"/>
@@ -5555,7 +5677,7 @@
       <c r="AA77"/>
     </row>
     <row r="78" spans="1:27" ht="15" customHeight="1" thickTop="1">
-      <c r="A78" s="83">
+      <c r="A78" s="77">
         <v>401135294</v>
       </c>
       <c r="B78" t="s">
@@ -5569,27 +5691,27 @@
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="64"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="I78" s="64"/>
-      <c r="J78" s="72"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="M78" s="40"/>
+      <c r="G78" s="93"/>
+      <c r="H78" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="I78" s="88"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="93"/>
+      <c r="L78" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="M78" s="93"/>
       <c r="N78" s="40"/>
-      <c r="O78" s="65" t="s">
+      <c r="O78" s="115" t="s">
         <v>116</v>
       </c>
       <c r="P78" s="40"/>
-      <c r="Q78" s="40" t="s">
+      <c r="Q78" s="93" t="s">
         <v>116</v>
       </c>
       <c r="R78" s="40"/>
-      <c r="S78" s="65" t="s">
+      <c r="S78" s="115" t="s">
         <v>116</v>
       </c>
       <c r="T78" s="40"/>
@@ -5602,7 +5724,7 @@
       <c r="AA78"/>
     </row>
     <row r="79" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="A79" s="83">
+      <c r="A79" s="77">
         <v>401135294</v>
       </c>
       <c r="B79" t="s">
@@ -5620,35 +5742,35 @@
       <c r="F79" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G79" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="H79" s="46"/>
-      <c r="I79" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J79" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="K79" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="L79" s="45"/>
-      <c r="M79" s="45" t="s">
+      <c r="G79" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="H79" s="101"/>
+      <c r="I79" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J79" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="K79" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="L79" s="100"/>
+      <c r="M79" s="100" t="s">
         <v>116</v>
       </c>
       <c r="N79" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="O79" s="66"/>
+      <c r="O79" s="112"/>
       <c r="P79" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="Q79" s="45"/>
-      <c r="R79" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="S79" s="66"/>
+      <c r="Q79" s="100"/>
+      <c r="R79" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="S79" s="112"/>
       <c r="T79" s="45"/>
       <c r="U79" s="46"/>
       <c r="V79" s="46"/>
@@ -5656,7 +5778,18 @@
       <c r="X79" s="46"/>
       <c r="Y79" s="46"/>
     </row>
-    <row r="80" spans="1:27" ht="14" customHeight="1" thickTop="1"/>
+    <row r="80" spans="1:27" ht="14" customHeight="1" thickTop="1">
+      <c r="G80" s="108"/>
+      <c r="H80" s="108"/>
+      <c r="I80" s="109"/>
+      <c r="J80" s="109"/>
+      <c r="K80" s="108"/>
+      <c r="L80" s="108"/>
+      <c r="M80" s="108"/>
+      <c r="O80" s="109"/>
+      <c r="Q80" s="108"/>
+      <c r="S80" s="109"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/src/resources/bowlpool.xlsx
+++ b/backend/src/resources/bowlpool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RyanKennedy/Code/GitHub/bowlpoolReact/backend/src/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School\CS 5319\CS-5319-Bowlpool\backend\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D22868-C9B8-A746-949B-0107AB6824F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55412D46-7157-462B-ABB7-9F37E1065E5E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="140">
   <si>
     <t>Liberty</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>Home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Home </t>
   </si>
   <si>
     <t>MSK</t>
@@ -1745,26 +1742,26 @@
   <dimension ref="A1:AA80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="76"/>
-    <col min="2" max="2" width="14.6640625"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="76"/>
+    <col min="2" max="2" width="14.625"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="59" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="68" customWidth="1"/>
-    <col min="7" max="8" width="4.6640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="4.6640625" style="68" customWidth="1"/>
-    <col min="11" max="14" width="4.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" style="68" customWidth="1"/>
-    <col min="16" max="17" width="4.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" style="74" customWidth="1"/>
-    <col min="19" max="19" width="4.6640625" style="68" customWidth="1"/>
-    <col min="20" max="25" width="4.6640625" style="1" customWidth="1"/>
-    <col min="26" max="27" width="5.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="68" customWidth="1"/>
+    <col min="7" max="8" width="4.625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="4.625" style="68" customWidth="1"/>
+    <col min="11" max="14" width="4.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.625" style="68" customWidth="1"/>
+    <col min="16" max="17" width="4.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" style="74" customWidth="1"/>
+    <col min="19" max="19" width="4.625" style="68" customWidth="1"/>
+    <col min="20" max="25" width="4.625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="5.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1">
@@ -1772,16 +1769,16 @@
         <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F1" s="61" t="s">
         <v>117</v>
@@ -1805,7 +1802,7 @@
         <v>122</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>124</v>
@@ -1817,7 +1814,7 @@
         <v>126</v>
       </c>
       <c r="Q1" s="117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R1" s="21" t="s">
         <v>127</v>
@@ -2086,7 +2083,7 @@
         <v>401135263</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>8</v>
@@ -2187,7 +2184,7 @@
       <c r="Z8" s="2"/>
       <c r="AA8"/>
     </row>
-    <row r="9" spans="1:27" ht="16" customHeight="1" thickBot="1">
+    <row r="9" spans="1:27" ht="15.95" customHeight="1" thickBot="1">
       <c r="A9" s="77">
         <v>401147693</v>
       </c>
@@ -3319,7 +3316,7 @@
         <v>131</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>83</v>
@@ -4833,7 +4830,7 @@
         <v>131</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>83</v>
@@ -5778,7 +5775,7 @@
       <c r="X79" s="46"/>
       <c r="Y79" s="46"/>
     </row>
-    <row r="80" spans="1:27" ht="14" customHeight="1" thickTop="1">
+    <row r="80" spans="1:27" ht="14.1" customHeight="1" thickTop="1">
       <c r="G80" s="108"/>
       <c r="H80" s="108"/>
       <c r="I80" s="109"/>
